--- a/biology/Zoologie/Coleonyx_elegans/Coleonyx_elegans.xlsx
+++ b/biology/Zoologie/Coleonyx_elegans/Coleonyx_elegans.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Coleonyx elegans est une espèce de geckos de la famille des Eublepharidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Coleonyx elegans est une espèce de geckos de la famille des Eublepharidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre au Salvador, au Guatemala, au Belize et dans le sud du Mexique[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre au Salvador, au Guatemala, au Belize et dans le sud du Mexique.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un gecko nocturne et terrestre, il présente un aspect relativement trapu, avec une queue plutôt épaisse.
 Les femelles sont en général un peu plus petites.
@@ -574,7 +590,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une espèce insectivore qui consomme la plupart des insectes et autres arthropodes de taille adaptée.
 </t>
@@ -605,9 +623,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (7 septembre 2012)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (7 septembre 2012) :
 Coleonyx elegans elegans Gray, 1845
 Coleonyx elegans nemoralis Klauber, 1945</t>
         </is>
@@ -637,7 +657,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Gray, 1845 : Description of a new genus of night lizards from Belize. Annals and Magazine of Natural History, ser. 1, vol. 16, p. 162-163 (texte intégral).
 Klauber, 1945 : The geckos of the genus Coleonyx with descriptions of new subspecies. Transactions of the San Diego Society of Natural History, vol. 10, n. 11, p. 133-216 (texte intégral).</t>
